--- a/data/trans_orig/P02F-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B395C396-6C8C-4704-8958-31748CBB0EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D58E44-B545-4837-9483-CE3FA7422F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A0BC7CF-E349-4F76-8828-40282E910405}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4A3B6FA-4553-4456-824C-8D15B0FB5A72}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="269">
   <si>
     <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2012 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -94,28 +94,28 @@
     <t>97,92%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -124,34 +124,34 @@
     <t>2,08%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -163,7 +163,7 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,55%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -172,613 +172,604 @@
     <t>95,09%</t>
   </si>
   <si>
-    <t>92,73%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>98,58%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>96,88%</t>
   </si>
   <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
   </si>
   <si>
     <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
   </si>
   <si>
     <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1265,7 +1256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734A76E1-FDC2-4703-A017-10AC34076015}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44BC429-D009-48CF-B205-74CDED93E836}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1858,7 +1849,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>903</v>
@@ -1867,10 +1858,10 @@
         <v>990186</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>66</v>
@@ -1906,10 +1897,10 @@
         <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -1918,13 +1909,13 @@
         <v>36692</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -2297,10 +2288,10 @@
         <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2306,13 @@
         <v>9592</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -2330,13 +2321,13 @@
         <v>26421</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -2345,13 +2336,13 @@
         <v>36013</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,7 +2416,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2440,7 +2431,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2455,7 +2446,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2461,13 @@
         <v>3366862</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>3171</v>
@@ -2485,13 +2476,13 @@
         <v>3420740</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>6323</v>
@@ -2500,13 +2491,13 @@
         <v>6787601</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2512,13 @@
         <v>45857</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
@@ -2634,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762B3A14-6B09-4158-8CC4-F8758F886FB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF93947-2D82-4966-921B-9863E9355A21}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2764,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2779,7 +2770,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2794,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2800,13 @@
         <v>110053</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>108</v>
@@ -2824,13 +2815,13 @@
         <v>106340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7">
         <v>215</v>
@@ -2839,13 +2830,13 @@
         <v>216393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2851,13 @@
         <v>6493</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -2875,13 +2866,13 @@
         <v>7020</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -2890,13 +2881,13 @@
         <v>13513</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3000,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,16 +3003,16 @@
         <v>527</v>
       </c>
       <c r="D9" s="7">
-        <v>544951</v>
+        <v>544952</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H9" s="7">
         <v>520</v>
@@ -3030,13 +3021,13 @@
         <v>529164</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M9" s="7">
         <v>1047</v>
@@ -3045,13 +3036,13 @@
         <v>1074117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3057,13 @@
         <v>12244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -3081,13 +3072,13 @@
         <v>29416</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3096,13 +3087,13 @@
         <v>41659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,7 +3105,7 @@
         <v>538</v>
       </c>
       <c r="D11" s="7">
-        <v>557195</v>
+        <v>557196</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3221,13 +3212,13 @@
         <v>999826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>926</v>
@@ -3236,13 +3227,13 @@
         <v>987545</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>1856</v>
@@ -3251,13 +3242,13 @@
         <v>1987371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3263,13 @@
         <v>17428</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -3287,13 +3278,13 @@
         <v>46119</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -3302,13 +3293,13 @@
         <v>63546</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,7 +3388,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3427,13 +3418,13 @@
         <v>752520</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>705</v>
@@ -3442,13 +3433,13 @@
         <v>751080</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>1394</v>
@@ -3457,13 +3448,13 @@
         <v>1503600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3469,13 @@
         <v>3999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -3496,10 +3487,10 @@
         <v>209</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -3508,13 +3499,13 @@
         <v>27894</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3624,13 @@
         <v>909130</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H21" s="7">
         <v>917</v>
@@ -3648,13 +3639,13 @@
         <v>994922</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>1821</v>
@@ -3663,7 +3654,7 @@
         <v>1904052</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>221</v>
@@ -3714,13 +3705,13 @@
         <v>68986</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,7 +3785,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3809,7 +3800,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3824,7 +3815,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3830,13 @@
         <v>3316481</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>3176</v>
@@ -3854,13 +3845,13 @@
         <v>3369050</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>6333</v>
@@ -3869,13 +3860,13 @@
         <v>6685532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3881,13 @@
         <v>62445</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>142</v>
@@ -3905,13 +3896,13 @@
         <v>153155</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M26" s="7">
         <v>201</v>
@@ -3920,13 +3911,13 @@
         <v>215599</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,7 +3994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811E0A84-9242-4491-8800-210CD8655E39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58EEA54-3A41-4408-9316-38223DA84AB8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4020,7 +4011,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4127,10 +4118,10 @@
         <v>101982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4142,10 +4133,10 @@
         <v>130733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -4157,10 +4148,10 @@
         <v>232715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4184,7 +4175,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4199,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4214,7 +4205,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4250,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4265,7 +4256,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,10 +4324,10 @@
         <v>549823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -4348,10 +4339,10 @@
         <v>619967</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -4363,10 +4354,10 @@
         <v>1169790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -4390,7 +4381,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4420,7 +4411,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,7 +4432,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4471,7 +4462,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,10 +4530,10 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -4554,10 +4545,10 @@
         <v>1060079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4569,10 +4560,10 @@
         <v>2099327</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4611,7 +4602,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4626,7 +4617,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,7 +4653,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4677,7 +4668,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +4736,10 @@
         <v>728772</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4760,10 +4751,10 @@
         <v>874371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -4775,10 +4766,10 @@
         <v>1603142</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4817,7 +4808,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4832,7 +4823,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4859,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4883,7 +4874,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,10 +4942,10 @@
         <v>965403</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -4966,10 +4957,10 @@
         <v>1150432</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -4981,10 +4972,10 @@
         <v>2115835</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -5023,7 +5014,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5038,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,7 +5065,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5089,7 +5080,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,10 +5148,10 @@
         <v>3385228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -5172,10 +5163,10 @@
         <v>3835581</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -5187,10 +5178,10 @@
         <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -5214,7 +5205,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5229,7 +5220,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5244,7 +5235,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5280,7 +5271,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5295,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P02F-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91F76C09-59E5-47B0-8762-EEFB073850A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E76A83-A75E-48B6-85EE-6004D8600CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0528EC9-62CE-4F4A-BCD6-FBB3ADD524CC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D76AE0A2-555D-4285-B98A-244943DE61AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="186">
   <si>
     <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2012 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -66,634 +66,529 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>96,88%</t>
   </si>
   <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>3,12%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2016 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
   </si>
   <si>
     <t>2,71%</t>
@@ -1111,8 +1006,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F756648-7F8C-4814-8DC5-77FD84505566}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EEBACD-F3EE-46E9-91A9-93950257640A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1229,10 +1124,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>116</v>
+        <v>660</v>
       </c>
       <c r="D4" s="7">
-        <v>110802</v>
+        <v>689305</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1244,10 +1139,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>91</v>
+        <v>612</v>
       </c>
       <c r="I4" s="7">
-        <v>103046</v>
+        <v>655669</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1259,10 +1154,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>207</v>
+        <v>1272</v>
       </c>
       <c r="N4" s="7">
-        <v>213848</v>
+        <v>1344974</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1280,10 +1175,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>2350</v>
+        <v>8466</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1295,10 +1190,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>8859</v>
+        <v>37402</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1310,10 +1205,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>11209</v>
+        <v>45868</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1331,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>119</v>
+        <v>668</v>
       </c>
       <c r="D6" s="7">
-        <v>113152</v>
+        <v>697771</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1346,10 +1241,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>693071</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1361,10 +1256,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>218</v>
+        <v>1315</v>
       </c>
       <c r="N6" s="7">
-        <v>225057</v>
+        <v>1390842</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1384,49 +1279,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>544</v>
+        <v>917</v>
       </c>
       <c r="D7" s="7">
-        <v>578503</v>
+        <v>996577</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>521</v>
+        <v>903</v>
       </c>
       <c r="I7" s="7">
-        <v>552623</v>
+        <v>990186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1065</v>
+        <v>1820</v>
       </c>
       <c r="N7" s="7">
-        <v>1131126</v>
+        <v>1986763</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,49 +1330,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>6116</v>
+        <v>18165</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7">
-        <v>28543</v>
+        <v>36692</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N8" s="7">
-        <v>34659</v>
+        <v>54857</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,10 +1381,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>549</v>
+        <v>933</v>
       </c>
       <c r="D9" s="7">
-        <v>584619</v>
+        <v>1014742</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1501,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>936</v>
       </c>
       <c r="I9" s="7">
-        <v>581166</v>
+        <v>1026878</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1516,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1097</v>
+        <v>1869</v>
       </c>
       <c r="N9" s="7">
-        <v>1165785</v>
+        <v>2041620</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1533,55 +1428,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>917</v>
+        <v>676</v>
       </c>
       <c r="D10" s="7">
-        <v>996577</v>
+        <v>743763</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>903</v>
+        <v>678</v>
       </c>
       <c r="I10" s="7">
-        <v>990186</v>
+        <v>749403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1820</v>
+        <v>1354</v>
       </c>
       <c r="N10" s="7">
-        <v>1986763</v>
+        <v>1493167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,49 +1485,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>18165</v>
+        <v>9634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>24708</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="7">
         <v>33</v>
       </c>
-      <c r="I11" s="7">
-        <v>36692</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>49</v>
-      </c>
       <c r="N11" s="7">
-        <v>54857</v>
+        <v>34342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,10 +1536,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>933</v>
+        <v>685</v>
       </c>
       <c r="D12" s="7">
-        <v>1014742</v>
+        <v>753397</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1656,10 +1551,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>936</v>
+        <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>1026878</v>
+        <v>774111</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1671,10 +1566,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1869</v>
+        <v>1387</v>
       </c>
       <c r="N12" s="7">
-        <v>2041620</v>
+        <v>1527509</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1688,55 +1583,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>676</v>
+        <v>899</v>
       </c>
       <c r="D13" s="7">
-        <v>743763</v>
+        <v>937218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>678</v>
+        <v>978</v>
       </c>
       <c r="I13" s="7">
-        <v>749403</v>
+        <v>1025480</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1354</v>
+        <v>1877</v>
       </c>
       <c r="N13" s="7">
-        <v>1493166</v>
+        <v>1962698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,49 +1640,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>9634</v>
+        <v>9592</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>24708</v>
+        <v>26421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N14" s="7">
-        <v>34342</v>
+        <v>36013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,10 +1691,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>685</v>
+        <v>909</v>
       </c>
       <c r="D15" s="7">
-        <v>753397</v>
+        <v>946810</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1811,10 +1706,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>702</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>774111</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1826,10 +1721,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1387</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1527508</v>
+        <v>1998711</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1843,31 +1738,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>899</v>
+        <v>3152</v>
       </c>
       <c r="D16" s="7">
-        <v>937218</v>
+        <v>3366862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
-        <v>978</v>
+        <v>3171</v>
       </c>
       <c r="I16" s="7">
-        <v>1025480</v>
+        <v>3420740</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1879,19 +1774,19 @@
         <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>1877</v>
+        <v>6323</v>
       </c>
       <c r="N16" s="7">
-        <v>1962697</v>
+        <v>6787602</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,49 +1795,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>9592</v>
+        <v>45857</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>117</v>
+      </c>
+      <c r="I17" s="7">
+        <v>125222</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>26421</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>160</v>
+      </c>
+      <c r="N17" s="7">
+        <v>171079</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="M17" s="7">
-        <v>35</v>
-      </c>
-      <c r="N17" s="7">
-        <v>36013</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,10 +1846,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>909</v>
+        <v>3195</v>
       </c>
       <c r="D18" s="7">
-        <v>946810</v>
+        <v>3412719</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1966,10 +1861,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3288</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3545962</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1981,10 +1876,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6483</v>
       </c>
       <c r="N18" s="7">
-        <v>1998710</v>
+        <v>6958681</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1997,171 +1892,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3152</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3366862</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3171</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3420740</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6323</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6787602</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7">
-        <v>45857</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>117</v>
-      </c>
-      <c r="I20" s="7">
-        <v>125222</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>160</v>
-      </c>
-      <c r="N20" s="7">
-        <v>171079</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3195</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3412719</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3288</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3545962</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6483</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6958681</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2174,8 +1913,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DE132A-D3F7-429A-AFB2-65E1A31A2AB7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAECCE5D-EAC3-4D24-9CA4-6D7323FD4533}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2191,7 +1930,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2292,49 +2031,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>634</v>
+      </c>
+      <c r="D4" s="7">
+        <v>655004</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="7">
+        <v>628</v>
+      </c>
+      <c r="I4" s="7">
+        <v>635504</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="7">
-        <v>110053</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="K4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="7">
-        <v>106340</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>215</v>
+        <v>1262</v>
       </c>
       <c r="N4" s="7">
-        <v>216393</v>
+        <v>1290509</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,49 +2082,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>6493</v>
+        <v>18737</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>7020</v>
+        <v>36436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>13513</v>
+        <v>55173</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,10 +2133,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>673741</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2409,10 +2148,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>665</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>671940</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2424,10 +2163,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1316</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1345682</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2447,49 +2186,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>527</v>
+        <v>930</v>
       </c>
       <c r="D7" s="7">
-        <v>544951</v>
+        <v>999826</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
-        <v>520</v>
+        <v>926</v>
       </c>
       <c r="I7" s="7">
-        <v>529164</v>
+        <v>987545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
-        <v>1047</v>
+        <v>1856</v>
       </c>
       <c r="N7" s="7">
-        <v>1074117</v>
+        <v>1987371</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,49 +2237,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>12244</v>
+        <v>17428</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>29416</v>
+        <v>46119</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="N8" s="7">
-        <v>41659</v>
+        <v>63546</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,10 +2288,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>946</v>
       </c>
       <c r="D9" s="7">
-        <v>557195</v>
+        <v>1017254</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2564,10 +2303,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>969</v>
       </c>
       <c r="I9" s="7">
-        <v>558580</v>
+        <v>1033664</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2579,10 +2318,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1088</v>
+        <v>1915</v>
       </c>
       <c r="N9" s="7">
-        <v>1115776</v>
+        <v>2050917</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2596,55 +2335,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>930</v>
+        <v>689</v>
       </c>
       <c r="D10" s="7">
-        <v>999826</v>
+        <v>752520</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
-        <v>926</v>
+        <v>705</v>
       </c>
       <c r="I10" s="7">
-        <v>987545</v>
+        <v>751080</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
-        <v>1856</v>
+        <v>1394</v>
       </c>
       <c r="N10" s="7">
-        <v>1987371</v>
+        <v>1503599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,49 +2392,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>17428</v>
+        <v>3999</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>46119</v>
+        <v>23894</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N11" s="7">
-        <v>63546</v>
+        <v>27894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>946</v>
+        <v>693</v>
       </c>
       <c r="D12" s="7">
-        <v>1017254</v>
+        <v>756519</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2719,10 +2458,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>969</v>
+        <v>727</v>
       </c>
       <c r="I12" s="7">
-        <v>1033664</v>
+        <v>774974</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2734,10 +2473,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1915</v>
+        <v>1420</v>
       </c>
       <c r="N12" s="7">
-        <v>2050917</v>
+        <v>1531493</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2751,55 +2490,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>689</v>
+        <v>904</v>
       </c>
       <c r="D13" s="7">
-        <v>752520</v>
+        <v>909130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>705</v>
+        <v>917</v>
       </c>
       <c r="I13" s="7">
-        <v>751080</v>
+        <v>994922</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M13" s="7">
-        <v>1394</v>
+        <v>1821</v>
       </c>
       <c r="N13" s="7">
-        <v>1503600</v>
+        <v>1904052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,49 +2547,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>3999</v>
+        <v>22281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>23894</v>
+        <v>46705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="N14" s="7">
-        <v>27894</v>
+        <v>68986</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,10 +2598,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>693</v>
+        <v>926</v>
       </c>
       <c r="D15" s="7">
-        <v>756519</v>
+        <v>931411</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2874,10 +2613,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>727</v>
+        <v>957</v>
       </c>
       <c r="I15" s="7">
-        <v>774974</v>
+        <v>1041627</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2889,10 +2628,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1420</v>
+        <v>1883</v>
       </c>
       <c r="N15" s="7">
-        <v>1531494</v>
+        <v>1973038</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2906,55 +2645,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>904</v>
+        <v>3157</v>
       </c>
       <c r="D16" s="7">
-        <v>909130</v>
+        <v>3316481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
-        <v>917</v>
+        <v>3176</v>
       </c>
       <c r="I16" s="7">
-        <v>994922</v>
+        <v>3369050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
-        <v>1821</v>
+        <v>6333</v>
       </c>
       <c r="N16" s="7">
-        <v>1904052</v>
+        <v>6685532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +2702,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>22281</v>
+        <v>62445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="I17" s="7">
-        <v>46705</v>
+        <v>153155</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" s="7">
         <v>201</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M17" s="7">
-        <v>62</v>
-      </c>
       <c r="N17" s="7">
-        <v>68986</v>
+        <v>215599</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,10 +2753,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>926</v>
+        <v>3216</v>
       </c>
       <c r="D18" s="7">
-        <v>931411</v>
+        <v>3378926</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3029,10 +2768,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>957</v>
+        <v>3318</v>
       </c>
       <c r="I18" s="7">
-        <v>1041627</v>
+        <v>3522205</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3044,10 +2783,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1883</v>
+        <v>6534</v>
       </c>
       <c r="N18" s="7">
-        <v>1973038</v>
+        <v>6901131</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3060,171 +2799,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3157</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3316481</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3176</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3369050</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6333</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6685532</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7">
-        <v>62445</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="7">
-        <v>142</v>
-      </c>
-      <c r="I20" s="7">
-        <v>153155</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M20" s="7">
-        <v>201</v>
-      </c>
-      <c r="N20" s="7">
-        <v>215599</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3216</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3378926</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3318</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3522205</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6534</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6901131</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
